--- a/kondziu na eliu czyli dioda/zad_4/Ut.xlsx
+++ b/kondziu na eliu czyli dioda/zad_4/Ut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Konrad\Documents\Studia\4 sem\ELIU\kondziu na eliu czyli dioda\zad_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4ACEBF3-C7C4-4BB2-879F-09A45897050C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9985262C-718E-4212-82C7-A840F11791AF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{9CD1412D-5E0A-47BB-BD9E-441D96323B78}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>TT</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Ut</t>
+  </si>
+  <si>
+    <t>Ut[V]</t>
+  </si>
+  <si>
+    <t>T[°C]</t>
+  </si>
+  <si>
+    <t>TT[ns]</t>
   </si>
 </sst>
 </file>
@@ -266,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -288,6 +297,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -602,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CD3E830-3C0A-4A40-A746-848BBD176505}">
-  <dimension ref="A4:H19"/>
+  <dimension ref="A4:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="L17" sqref="L17:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,27 +696,27 @@
         <v>3</v>
       </c>
       <c r="B7" s="10">
-        <f>1.091</f>
+        <f t="shared" ref="B7:G7" si="0">1.091</f>
         <v>1.091</v>
       </c>
       <c r="C7" s="11">
-        <f>1.091</f>
+        <f t="shared" si="0"/>
         <v>1.091</v>
       </c>
       <c r="D7" s="12">
-        <f>1.091</f>
+        <f t="shared" si="0"/>
         <v>1.091</v>
       </c>
       <c r="E7" s="10">
-        <f>1.091</f>
+        <f t="shared" si="0"/>
         <v>1.091</v>
       </c>
       <c r="F7" s="11">
-        <f>1.091</f>
+        <f t="shared" si="0"/>
         <v>1.091</v>
       </c>
       <c r="G7" s="12">
-        <f>1.091</f>
+        <f t="shared" si="0"/>
         <v>1.091</v>
       </c>
     </row>
@@ -776,23 +787,23 @@
         <v>0.2155499999999998</v>
       </c>
       <c r="C10" s="14">
-        <f t="shared" ref="C10:G10" si="0">(C9-C8)/(C7-C6)</f>
+        <f t="shared" ref="C10:G10" si="1">(C9-C8)/(C7-C6)</f>
         <v>0.21056666666666646</v>
       </c>
       <c r="D10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20749999999999982</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2125928821257986</v>
       </c>
       <c r="F10" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22058462217160521</v>
       </c>
       <c r="G10" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22881081671173736</v>
       </c>
     </row>
@@ -805,23 +816,23 @@
         <v>-0.22533204999999978</v>
       </c>
       <c r="C11" s="14">
-        <f t="shared" ref="C11:G11" si="1">C8-C10*C6</f>
+        <f t="shared" ref="C11:G11" si="2">C8-C10*C6</f>
         <v>-0.21843823333333309</v>
       </c>
       <c r="D11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.21353249999999979</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22211386691597318</v>
       </c>
       <c r="F11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.22938013022301337</v>
       </c>
       <c r="G11" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-0.23679749792691956</v>
       </c>
     </row>
@@ -834,28 +845,87 @@
         <v>1.0453818139642774</v>
       </c>
       <c r="C12" s="19">
-        <f t="shared" ref="C12:G12" si="2">-C11/C10</f>
+        <f t="shared" ref="C12:G12" si="3">-C11/C10</f>
         <v>1.0373827766344783</v>
       </c>
       <c r="D12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0290722891566264</v>
       </c>
       <c r="E12" s="18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.044785059099677</v>
       </c>
       <c r="F12" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0398736229426078</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0349051733216095</v>
       </c>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="L17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2">
+        <v>17</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="2">
+        <v>47</v>
+      </c>
+      <c r="R17" s="3"/>
+    </row>
+    <row r="18" spans="8:18" x14ac:dyDescent="0.25">
+      <c r="L18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M18" s="22">
+        <v>-5</v>
+      </c>
+      <c r="N18" s="5">
+        <v>10</v>
+      </c>
+      <c r="O18" s="5">
+        <v>25</v>
+      </c>
+      <c r="P18" s="22">
+        <v>-5</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>10</v>
+      </c>
+      <c r="R18" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" s="6"/>
+      <c r="L19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M19" s="21">
+        <v>1.0453818139642774</v>
+      </c>
+      <c r="N19" s="21">
+        <v>1.0373827766344783</v>
+      </c>
+      <c r="O19" s="21">
+        <v>1.0290722891566264</v>
+      </c>
+      <c r="P19" s="21">
+        <v>1.044785059099677</v>
+      </c>
+      <c r="Q19" s="21">
+        <v>1.0398736229426078</v>
+      </c>
+      <c r="R19" s="21">
+        <v>1.0349051733216095</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
